--- a/recorded_actions.xlsx
+++ b/recorded_actions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://novachem-my.sharepoint.com/personal/han_lin_novachem_com/Documents/files/python_sandbox/Automaton/Automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_085DE357974E780E6235547658394679A67994C4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1A87A78-8B6E-43A3-86A3-1AE69F83E312}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_6454BDDDC575B4DA3C81D688E3F47F4BB4B2E839" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8ED13C45-0F92-4AF4-B00A-78A6EF96A654}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>type</t>
   </si>
@@ -40,6 +40,12 @@
     <t>key</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
     <t>click</t>
   </si>
   <si>
@@ -49,41 +55,62 @@
     <t>key_press</t>
   </si>
   <si>
+    <t>Key.backspace</t>
+  </si>
+  <si>
+    <t>key_release</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>search start</t>
+  </si>
+  <si>
+    <t>search end</t>
+  </si>
+  <si>
+    <t>Key.enter</t>
+  </si>
+  <si>
+    <t>waiting for search results</t>
+  </si>
+  <si>
+    <t>Screenshots\Screenshot_sample_search.jpg</t>
+  </si>
+  <si>
+    <t>Key.cmd</t>
+  </si>
+  <si>
+    <t>Key.up</t>
+  </si>
+  <si>
+    <t>Key.end</t>
+  </si>
+  <si>
+    <t>Screenshots\Screenshot_dataset_button.jpg</t>
+  </si>
+  <si>
+    <t>Screenshots\Screenshot_simdist_loc.jpg</t>
+  </si>
+  <si>
+    <t>saving start</t>
+  </si>
+  <si>
+    <t>saving end</t>
+  </si>
+  <si>
     <t>Key.ctrl_l</t>
   </si>
   <si>
-    <t>key_release</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Key.shift</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Key.enter</t>
-  </si>
-  <si>
-    <t>replace</t>
+    <t>w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +121,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -115,27 +150,66 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -229,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,6 +338,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,7 +362,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -297,31 +372,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -343,7 +418,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -401,7 +476,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -414,13 +489,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -439,354 +513,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>318</v>
-      </c>
-      <c r="C2">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>528</v>
+      </c>
+      <c r="C2" s="5">
+        <v>561</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1.9737548828125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>4.0624547004699707</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B3" s="5">
+        <v>174</v>
+      </c>
+      <c r="C3" s="5">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>4.1597023010253906</v>
-      </c>
-      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>174</v>
+      </c>
+      <c r="C4" s="5">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>4.2326829433441162</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="5">
+        <v>174</v>
+      </c>
+      <c r="C5" s="5">
+        <v>251</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>4.3336193561553964</v>
+      <c r="E6" s="6">
+        <v>3.2</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3.51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6">
+        <v>40.889106512069702</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6">
+        <v>40.983394384384162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6">
+        <v>41.081073760986328</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5">
+        <v>881</v>
+      </c>
+      <c r="C27" s="5">
+        <v>772</v>
+      </c>
+      <c r="D27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>4.3336193561553964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>7.4862129688262939</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E27" s="6">
+        <v>49.174161911010742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1711</v>
+      </c>
+      <c r="C28" s="5">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6">
+        <v>52.778319597244263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>362</v>
+      </c>
+      <c r="C29" s="5">
+        <v>254</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6">
+        <v>55.536817312240601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="6">
+        <v>58.227206230163567</v>
+      </c>
+      <c r="F30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>7.5700681209564209</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="6">
+        <v>58.346593141555793</v>
+      </c>
+      <c r="F31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>7.8860862255096444</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>7.960618257522583</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>8.0323340892791748</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>8.1036376953125</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>8.1580591201782227</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>8.2371642589569092</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>8.4086518287658691</v>
-      </c>
-      <c r="F16" t="s">
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>8.4863471984863281</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E32" s="6">
+        <v>61.453833818435669</v>
+      </c>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>9.2399795055389404</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>9.292625904083252</v>
-      </c>
-      <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>9.3852715492248535</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21">
-        <v>9.4482638835906982</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E33" s="6">
+        <v>61.539681196212769</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6">
+        <v>64.100064039230347</v>
+      </c>
+      <c r="F34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>9.6093494892120361</v>
-      </c>
-      <c r="F22" t="s">
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6">
+        <v>64.171066045761108</v>
+      </c>
+      <c r="F35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>9.6878998279571533</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>9.6878998279571533</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25">
-        <v>11.03817343711853</v>
-      </c>
-      <c r="F25" t="s">
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5">
+        <v>873</v>
+      </c>
+      <c r="C36" s="5">
+        <v>262</v>
+      </c>
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>11.120618104934691</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E36" s="6">
+        <v>66.738999366760254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="6">
+        <v>67.980631113052368</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6">
+        <v>68.05958890914917</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6">
+        <v>68.197600364685059</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6">
+        <v>68.281456232070923</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5">
+        <v>873</v>
+      </c>
+      <c r="C41" s="5">
+        <v>262</v>
+      </c>
+      <c r="D41" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>11.18312835693359</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E41" s="6">
+        <v>69.101325988769531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6">
+        <v>69.702180624008179</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6">
+        <v>69.802210569381714</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6">
+        <v>69.932664632797241</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6">
+        <v>70.00243878364563</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="5">
+        <v>873</v>
+      </c>
+      <c r="C46" s="5">
+        <v>262</v>
+      </c>
+      <c r="D46" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>11.28335571289062</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E46" s="6">
+        <v>70.434375762939453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6">
+        <v>70.904829263687134</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6">
+        <v>71.022363424301147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6">
+        <v>71.134331941604614</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6">
+        <v>71.252493858337402</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="5">
+        <v>695</v>
+      </c>
+      <c r="C51" s="5">
+        <v>515</v>
+      </c>
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29">
-        <v>12.603654384613041</v>
-      </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>12.687805414199831</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
+      <c r="E51" s="6">
+        <v>72.140156030654907</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>